--- a/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
+++ b/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKADEMIK\TA 2016 - 2017\GIT\04 - PERKULIAHAN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -126,12 +131,15 @@
   <si>
     <t>Dr. Indra, M.Si</t>
   </si>
+  <si>
+    <t>F - CLASS-aaaaaa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +348,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -386,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,9 +434,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,6 +469,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,14 +645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="1" customWidth="1"/>
@@ -1912,9 +1930,9 @@
     <col min="16142" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="24" customHeight="1">
+    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1935,7 +1953,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75">
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1984,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:18" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +2015,7 @@
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="6" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2015,7 +2033,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2056,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -2069,7 +2087,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2118,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="10" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2118,7 +2136,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2159,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="12" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -2172,7 +2190,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="13" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>10</v>
       </c>
@@ -2203,7 +2221,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2221,7 +2239,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="15" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>1</v>
       </c>
@@ -2244,7 +2262,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -2275,7 +2293,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -2306,7 +2324,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2324,7 +2342,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>1</v>
       </c>
@@ -2347,7 +2365,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2396,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1">
+    <row r="21" spans="1:18" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
@@ -2409,7 +2427,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:18" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2427,7 +2445,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +2468,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:18" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>2</v>
       </c>
@@ -2481,7 +2499,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:18" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
@@ -2512,7 +2530,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" ht="18.75">
+    <row r="26" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E26" s="7"/>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
@@ -2528,7 +2546,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" ht="18.75">
+    <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
@@ -2544,7 +2562,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" ht="18.75">
+    <row r="28" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E28" s="7"/>
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
@@ -2560,7 +2578,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" ht="18.75">
+    <row r="29" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E29" s="7"/>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
@@ -2576,7 +2594,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" ht="18.75">
+    <row r="30" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
       <c r="G30" s="5"/>
@@ -2592,7 +2610,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" ht="18.75">
+    <row r="31" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
@@ -2608,7 +2626,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="18.75">
+    <row r="32" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
       <c r="G32" s="5"/>
@@ -2624,7 +2642,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" ht="18.75">
+    <row r="33" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
@@ -2640,7 +2658,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75">
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
@@ -2656,7 +2674,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" ht="18.75">
+    <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
@@ -2672,7 +2690,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75">
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
       <c r="G36" s="5"/>
@@ -2688,7 +2706,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" ht="24" customHeight="1">
+    <row r="37" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>25</v>
       </c>
@@ -2711,7 +2729,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" ht="18">
+    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>2</v>
       </c>
@@ -2742,7 +2760,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" ht="18">
+    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +2792,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" ht="18">
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2794,7 +2812,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" ht="24" customHeight="1">
+    <row r="41" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
         <v>25</v>
       </c>
@@ -2818,7 +2836,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" ht="18">
+    <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>2</v>
       </c>
@@ -2850,7 +2868,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" ht="18">
+    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>8</v>
       </c>
@@ -2882,7 +2900,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" ht="18">
+    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2902,7 +2920,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" ht="24" customHeight="1">
+    <row r="45" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>25</v>
       </c>
@@ -2926,7 +2944,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" ht="18">
+    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>2</v>
       </c>
@@ -2958,7 +2976,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="18">
+    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>10</v>
       </c>
@@ -2990,7 +3008,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="18">
+    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3010,7 +3028,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" ht="24" customHeight="1">
+    <row r="49" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>25</v>
       </c>
@@ -3034,7 +3052,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" ht="18">
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>2</v>
       </c>
@@ -3066,7 +3084,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" ht="18">
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3116,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:18" ht="18">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3118,7 +3136,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" ht="24" customHeight="1">
+    <row r="53" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
         <v>25</v>
       </c>
@@ -3142,7 +3160,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" ht="18">
+    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>2</v>
       </c>
@@ -3174,7 +3192,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" ht="18">
+    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>16</v>
       </c>
@@ -3206,7 +3224,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="18">
+    <row r="56" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3226,7 +3244,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" ht="24" customHeight="1">
+    <row r="57" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>25</v>
       </c>
@@ -3250,7 +3268,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" ht="18">
+    <row r="58" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>2</v>
       </c>
@@ -3282,7 +3300,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:18" ht="18">
+    <row r="59" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>33</v>
       </c>
@@ -3314,7 +3332,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:18" ht="18.75">
+    <row r="60" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E60" s="7"/>
       <c r="F60" s="6"/>
       <c r="G60" s="5"/>
@@ -3330,72 +3348,72 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:18" ht="18.75">
+    <row r="72" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:18" ht="18" customHeight="1">
+    <row r="73" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
     </row>
-    <row r="74" spans="1:18" ht="24" customHeight="1">
+    <row r="74" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E74" s="21" t="s">
         <v>31</v>
       </c>
@@ -3413,7 +3431,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" ht="18">
+    <row r="75" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="E75" s="13" t="s">
         <v>2</v>
       </c>
@@ -3435,7 +3453,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" ht="18">
+    <row r="76" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="D76" s="16"/>
       <c r="E76" s="14" t="s">
         <v>5</v>
@@ -3458,7 +3476,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" ht="18">
+    <row r="77" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
       <c r="F77" s="8"/>
@@ -3475,7 +3493,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" ht="24" customHeight="1">
+    <row r="78" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D78" s="12"/>
       <c r="E78" s="21" t="s">
         <v>31</v>
@@ -3494,7 +3512,7 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" ht="18">
+    <row r="79" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D79" s="12"/>
       <c r="E79" s="13" t="s">
         <v>2</v>
@@ -3517,7 +3535,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" ht="18">
+    <row r="80" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D80" s="12"/>
       <c r="E80" s="14" t="s">
         <v>8</v>
@@ -3540,7 +3558,7 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="4:18" ht="18">
+    <row r="81" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D81" s="12"/>
       <c r="E81" s="11"/>
       <c r="F81" s="8"/>
@@ -3557,7 +3575,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" spans="4:18" ht="24" customHeight="1">
+    <row r="82" spans="4:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" s="12"/>
       <c r="E82" s="21" t="s">
         <v>31</v>
@@ -3576,7 +3594,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" spans="4:18" ht="18">
+    <row r="83" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D83" s="12"/>
       <c r="E83" s="13" t="s">
         <v>2</v>
@@ -3599,7 +3617,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" spans="4:18" ht="18">
+    <row r="84" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D84" s="12"/>
       <c r="E84" s="14" t="s">
         <v>10</v>
@@ -3622,7 +3640,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
-    <row r="85" spans="4:18" ht="18">
+    <row r="85" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D85" s="12"/>
       <c r="E85" s="11"/>
       <c r="F85" s="8"/>
@@ -3639,7 +3657,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="4:18" ht="24" customHeight="1">
+    <row r="86" spans="4:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D86" s="12"/>
       <c r="E86" s="21" t="s">
         <v>31</v>
@@ -3658,7 +3676,7 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" spans="4:18" ht="18">
+    <row r="87" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D87" s="12"/>
       <c r="E87" s="13" t="s">
         <v>2</v>
@@ -3681,7 +3699,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" spans="4:18" ht="18">
+    <row r="88" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D88" s="12"/>
       <c r="E88" s="14" t="s">
         <v>13</v>
@@ -3704,7 +3722,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" spans="4:18" ht="18">
+    <row r="89" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D89" s="12"/>
       <c r="E89" s="11"/>
       <c r="F89" s="8"/>
@@ -3721,7 +3739,7 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
-    <row r="90" spans="4:18" ht="24" customHeight="1">
+    <row r="90" spans="4:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D90" s="12"/>
       <c r="E90" s="21" t="s">
         <v>31</v>
@@ -3740,7 +3758,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="4:18" ht="18">
+    <row r="91" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D91" s="12"/>
       <c r="E91" s="13" t="s">
         <v>2</v>
@@ -3763,7 +3781,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="4:18" ht="18">
+    <row r="92" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D92" s="12"/>
       <c r="E92" s="14" t="s">
         <v>16</v>
@@ -3786,7 +3804,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="4:18" ht="18">
+    <row r="93" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D93" s="12"/>
       <c r="E93" s="11"/>
       <c r="F93" s="8"/>
@@ -3803,7 +3821,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="4:18" ht="24" customHeight="1">
+    <row r="94" spans="4:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D94" s="12"/>
       <c r="E94" s="21" t="s">
         <v>31</v>
@@ -3822,7 +3840,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="4:18" ht="18">
+    <row r="95" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D95" s="12"/>
       <c r="E95" s="13" t="s">
         <v>2</v>
@@ -3845,7 +3863,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" spans="4:18" ht="18">
+    <row r="96" spans="4:18" ht="18" x14ac:dyDescent="0.3">
       <c r="D96" s="12"/>
       <c r="E96" s="14" t="s">
         <v>33</v>
@@ -3868,63 +3886,63 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="5:7">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E97" s="2"/>
       <c r="F97" s="5"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="5:7">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E98" s="2"/>
       <c r="F98" s="5"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="5:7">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E99" s="2"/>
       <c r="F99" s="5"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="5:7">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E100" s="2"/>
       <c r="F100" s="5"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="5:7">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E101" s="2"/>
       <c r="F101" s="5"/>
       <c r="G101" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="E94:G94"/>
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="E86:G86"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3932,16 +3950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3952,24 +3970,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
+++ b/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
@@ -649,7 +649,7 @@
   <dimension ref="A3:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3913,36 +3913,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
+++ b/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
@@ -132,7 +132,7 @@
     <t>Dr. Indra, M.Si</t>
   </si>
   <si>
-    <t>F - CLASS-aaaaaa</t>
+    <t>F - CLASS-bbbbb</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
   <dimension ref="A3:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3913,36 +3913,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="E94:G94"/>
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="E86:G86"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
+++ b/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="36">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Dr. Indra, M.Si</t>
-  </si>
-  <si>
-    <t>F - CLASS-bbbbb</t>
   </si>
 </sst>
 </file>
@@ -649,7 +646,7 @@
   <dimension ref="A3:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1932,7 +1929,7 @@
   <sheetData>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3913,36 +3910,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
+++ b/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Dr. Indra, M.Si</t>
+  </si>
+  <si>
+    <t>F - CLASS dfvsd</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
   <dimension ref="A3:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2032,7 +2035,7 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3910,36 +3913,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="E94:G94"/>
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="E86:G86"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
+++ b/04 - PERKULIAHAN/Label Untuk Map Absen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="36">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Dr. Indra, M.Si</t>
-  </si>
-  <si>
-    <t>F - CLASS dfvsd</t>
   </si>
 </sst>
 </file>
@@ -649,7 +646,7 @@
   <dimension ref="A3:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2035,7 +2032,7 @@
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3913,36 +3910,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
